--- a/va_facility_data_2025-02-20/Chula Vista VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Chula%20Vista%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Chula Vista VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Chula%20Vista%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R30a95d5afc274653bea942bf4d12a7ff"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R7bf279ecf59846e58175fd49630b7e3f"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Refe6878175f6452db716883e615c9228"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Raea9249118ec4054bd0acb749697a65c"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R08bcf09b728c4a52939eaad70a4636b0"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R6a36405973fe48459e4ec7a195192b1a"/>
   </x:sheets>
 </x:workbook>
 </file>
